--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Cd44</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H2">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I2">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J2">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>10.13524867016625</v>
+        <v>52.74090375270399</v>
       </c>
       <c r="R2">
-        <v>40.54099468066499</v>
+        <v>210.963615010816</v>
       </c>
       <c r="S2">
-        <v>0.001941672924810175</v>
+        <v>0.003480890403530991</v>
       </c>
       <c r="T2">
-        <v>0.00125938572946785</v>
+        <v>0.002342658024035699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H3">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I3">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J3">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>59.80883528596349</v>
+        <v>177.028179006624</v>
       </c>
       <c r="R3">
-        <v>358.8530117157809</v>
+        <v>1062.169074039744</v>
       </c>
       <c r="S3">
-        <v>0.01145795233234093</v>
+        <v>0.01168382878587156</v>
       </c>
       <c r="T3">
-        <v>0.01114758938430665</v>
+        <v>0.01179491972610633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H4">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I4">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J4">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>124.2300020956227</v>
+        <v>561.4190805027093</v>
       </c>
       <c r="R4">
-        <v>745.3800125737359</v>
+        <v>3368.514483016256</v>
       </c>
       <c r="S4">
-        <v>0.02379951783799944</v>
+        <v>0.03705356091060313</v>
       </c>
       <c r="T4">
-        <v>0.02315485740446395</v>
+        <v>0.03740586964398537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H5">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I5">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J5">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>45.74802184892025</v>
+        <v>185.705820884416</v>
       </c>
       <c r="R5">
-        <v>182.992087395681</v>
+        <v>742.823283537664</v>
       </c>
       <c r="S5">
-        <v>0.00876423443355097</v>
+        <v>0.01225655162883452</v>
       </c>
       <c r="T5">
-        <v>0.005684557699852519</v>
+        <v>0.008248725381060787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H6">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I6">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J6">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>9.385653134773833</v>
+        <v>1030.466966335637</v>
       </c>
       <c r="R6">
-        <v>56.313918808643</v>
+        <v>6182.801798013823</v>
       </c>
       <c r="S6">
-        <v>0.001798068223732212</v>
+        <v>0.06801063916333652</v>
       </c>
       <c r="T6">
-        <v>0.001749363731123254</v>
+        <v>0.06865729070103789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H7">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I7">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J7">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>78.24743440454348</v>
+        <v>289.6005779220267</v>
       </c>
       <c r="R7">
-        <v>469.4846064272609</v>
+        <v>1737.60346753216</v>
       </c>
       <c r="S7">
-        <v>0.01499034999174521</v>
+        <v>0.01911358738319172</v>
       </c>
       <c r="T7">
-        <v>0.01458430455879539</v>
+        <v>0.01929532116520553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
         <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J8">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>10.3246501035875</v>
+        <v>18.15145504677334</v>
       </c>
       <c r="R8">
-        <v>61.947900621525</v>
+        <v>108.90873028064</v>
       </c>
       <c r="S8">
-        <v>0.0019779577410157</v>
+        <v>0.001197992851595724</v>
       </c>
       <c r="T8">
-        <v>0.001924380559178757</v>
+        <v>0.001209383480020479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
         <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J9">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
-        <v>60.92650684026499</v>
+        <v>60.92650684026501</v>
       </c>
       <c r="R9">
-        <v>548.3385615623849</v>
+        <v>548.3385615623851</v>
       </c>
       <c r="S9">
-        <v>0.01167207165653726</v>
+        <v>0.004021138772580678</v>
       </c>
       <c r="T9">
-        <v>0.01703386324849956</v>
+        <v>0.006089058205920751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H10">
         <v>1.582565</v>
       </c>
       <c r="I10">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J10">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>126.5515376826178</v>
+        <v>193.2195407558462</v>
       </c>
       <c r="R10">
-        <v>1138.96383914356</v>
+        <v>1738.975866802615</v>
       </c>
       <c r="S10">
-        <v>0.02424426891811061</v>
+        <v>0.01275245582338372</v>
       </c>
       <c r="T10">
-        <v>0.03538134218698422</v>
+        <v>0.0193105610546194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H11">
         <v>1.582565</v>
       </c>
       <c r="I11">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J11">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>46.6029333756475</v>
+        <v>63.91302802684335</v>
       </c>
       <c r="R11">
-        <v>279.617600253885</v>
+        <v>383.4781681610601</v>
       </c>
       <c r="S11">
-        <v>0.008928015177228295</v>
+        <v>0.004218248647433164</v>
       </c>
       <c r="T11">
-        <v>0.008686180944537504</v>
+        <v>0.00425835615131529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H12">
         <v>1.582565</v>
       </c>
       <c r="I12">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J12">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>9.561046577517223</v>
+        <v>354.6483561284678</v>
       </c>
       <c r="R12">
-        <v>86.049419197655</v>
+        <v>3191.83520515621</v>
       </c>
       <c r="S12">
-        <v>0.001831669441625024</v>
+        <v>0.02340672934358531</v>
       </c>
       <c r="T12">
-        <v>0.002673082183111989</v>
+        <v>0.03544392408319069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H13">
         <v>1.582565</v>
       </c>
       <c r="I13">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J13">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>79.70967541313166</v>
+        <v>99.66973444973891</v>
       </c>
       <c r="R13">
-        <v>717.387078718185</v>
+        <v>897.0276100476501</v>
       </c>
       <c r="S13">
-        <v>0.01527048063957826</v>
+        <v>0.006578185004097338</v>
       </c>
       <c r="T13">
-        <v>0.02228527091056295</v>
+        <v>0.009961096506390238</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H14">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I14">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J14">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>122.364371117895</v>
+        <v>277.00494579264</v>
       </c>
       <c r="R14">
-        <v>489.45748447158</v>
+        <v>1108.01978317056</v>
       </c>
       <c r="S14">
-        <v>0.0234421072529189</v>
+        <v>0.01828227787034817</v>
       </c>
       <c r="T14">
-        <v>0.01520475202890677</v>
+        <v>0.01230407165568208</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H15">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I15">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J15">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>722.081002176402</v>
+        <v>929.7846195323401</v>
       </c>
       <c r="R15">
-        <v>4332.486013058411</v>
+        <v>5578.707717194041</v>
       </c>
       <c r="S15">
-        <v>0.1383335700063014</v>
+        <v>0.06136562192138971</v>
       </c>
       <c r="T15">
-        <v>0.1345865117751305</v>
+        <v>0.06194909201174079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H16">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I16">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J16">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>1499.847371791845</v>
+        <v>2948.676471127661</v>
       </c>
       <c r="R16">
-        <v>8999.084230751072</v>
+        <v>17692.05882676596</v>
       </c>
       <c r="S16">
-        <v>0.2873351338411864</v>
+        <v>0.1946121302659641</v>
       </c>
       <c r="T16">
-        <v>0.2795520521328551</v>
+        <v>0.1964625206584082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H17">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I17">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J17">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>552.322701258303</v>
+        <v>975.3611938215601</v>
       </c>
       <c r="R17">
-        <v>2209.290805033212</v>
+        <v>3901.44477528624</v>
       </c>
       <c r="S17">
-        <v>0.1058119114480172</v>
+        <v>0.06437366783605665</v>
       </c>
       <c r="T17">
-        <v>0.06863051422441631</v>
+        <v>0.04332382580611296</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H18">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I18">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J18">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>113.3143922504727</v>
+        <v>5412.20240535364</v>
       </c>
       <c r="R18">
-        <v>679.886353502836</v>
+        <v>32473.21443212184</v>
       </c>
       <c r="S18">
-        <v>0.02170834624627455</v>
+        <v>0.3572044101310448</v>
       </c>
       <c r="T18">
-        <v>0.02112032963191619</v>
+        <v>0.3606007431743234</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H19">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I19">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J19">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>944.6929635465619</v>
+        <v>1521.0356038826</v>
       </c>
       <c r="R19">
-        <v>5668.157781279371</v>
+        <v>9126.2136232956</v>
       </c>
       <c r="S19">
-        <v>0.1809807345898062</v>
+        <v>0.1003880832571524</v>
       </c>
       <c r="T19">
-        <v>0.1760784874259602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.864657</v>
-      </c>
-      <c r="I20">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J20">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>19.5719925</v>
-      </c>
-      <c r="N20">
-        <v>39.143985</v>
-      </c>
-      <c r="O20">
-        <v>0.03094210933382397</v>
-      </c>
-      <c r="P20">
-        <v>0.0218719077767638</v>
-      </c>
-      <c r="Q20">
-        <v>18.6890151063575</v>
-      </c>
-      <c r="R20">
-        <v>112.134090638145</v>
-      </c>
-      <c r="S20">
-        <v>0.0035803714150792</v>
-      </c>
-      <c r="T20">
-        <v>0.003483389459210422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.864657</v>
-      </c>
-      <c r="I21">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J21">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>115.495743</v>
-      </c>
-      <c r="N21">
-        <v>346.487229</v>
-      </c>
-      <c r="O21">
-        <v>0.1825916246134487</v>
-      </c>
-      <c r="P21">
-        <v>0.1936015640337701</v>
-      </c>
-      <c r="Q21">
-        <v>110.285229551717</v>
-      </c>
-      <c r="R21">
-        <v>992.5670659654529</v>
-      </c>
-      <c r="S21">
-        <v>0.02112803061826912</v>
-      </c>
-      <c r="T21">
-        <v>0.03083359962583338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H22">
-        <v>2.864657</v>
-      </c>
-      <c r="I22">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J22">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>239.8982746666667</v>
-      </c>
-      <c r="N22">
-        <v>719.694824</v>
-      </c>
-      <c r="O22">
-        <v>0.3792643310961689</v>
-      </c>
-      <c r="P22">
-        <v>0.4021332732970915</v>
-      </c>
-      <c r="Q22">
-        <v>229.0754239372631</v>
-      </c>
-      <c r="R22">
-        <v>2061.678815435369</v>
-      </c>
-      <c r="S22">
-        <v>0.0438854104988724</v>
-      </c>
-      <c r="T22">
-        <v>0.06404502157278825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H23">
-        <v>2.864657</v>
-      </c>
-      <c r="I23">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J23">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>88.3431645</v>
-      </c>
-      <c r="N23">
-        <v>176.686329</v>
-      </c>
-      <c r="O23">
-        <v>0.139665077781682</v>
-      </c>
-      <c r="P23">
-        <v>0.09872441687536275</v>
-      </c>
-      <c r="Q23">
-        <v>84.35762152902551</v>
-      </c>
-      <c r="R23">
-        <v>506.145729174153</v>
-      </c>
-      <c r="S23">
-        <v>0.0161609167228855</v>
-      </c>
-      <c r="T23">
-        <v>0.01572316400655643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H24">
-        <v>2.864657</v>
-      </c>
-      <c r="I24">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J24">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>18.12446233333333</v>
-      </c>
-      <c r="N24">
-        <v>54.373387</v>
-      </c>
-      <c r="O24">
-        <v>0.02865365369084289</v>
-      </c>
-      <c r="P24">
-        <v>0.03038141635232814</v>
-      </c>
-      <c r="Q24">
-        <v>17.30678929813989</v>
-      </c>
-      <c r="R24">
-        <v>155.761103683259</v>
-      </c>
-      <c r="S24">
-        <v>0.003315569779211101</v>
-      </c>
-      <c r="T24">
-        <v>0.004838640806176709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H25">
-        <v>2.864657</v>
-      </c>
-      <c r="I25">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J25">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>151.102183</v>
-      </c>
-      <c r="N25">
-        <v>453.306549</v>
-      </c>
-      <c r="O25">
-        <v>0.2388832034840335</v>
-      </c>
-      <c r="P25">
-        <v>0.2532874216646838</v>
-      </c>
-      <c r="Q25">
-        <v>144.2853087487437</v>
-      </c>
-      <c r="R25">
-        <v>1298.567778738693</v>
-      </c>
-      <c r="S25">
-        <v>0.0276416382629038</v>
-      </c>
-      <c r="T25">
-        <v>0.04033935876936526</v>
+        <v>0.101342582570844</v>
       </c>
     </row>
   </sheetData>
